--- a/Code/R/PerfSearch_Classification_IT_WEKA_SMOTE217_NormFeaturized.xlsx
+++ b/Code/R/PerfSearch_Classification_IT_WEKA_SMOTE217_NormFeaturized.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$339</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$339</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>nF</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>MCC</t>
+  </si>
+  <si>
+    <t>BEST</t>
   </si>
 </sst>
 </file>
@@ -179,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,6 +362,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -520,8 +529,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2432,23 +2443,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="84273408"/>
-        <c:axId val="84271872"/>
+        <c:axId val="79759616"/>
+        <c:axId val="79777792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84273408"/>
+        <c:axId val="79759616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84271872"/>
+        <c:crossAx val="79777792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84271872"/>
+        <c:axId val="79777792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2456,7 +2467,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84273408"/>
+        <c:crossAx val="79759616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2469,8 +2480,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2796,10 +2807,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G339"/>
+  <dimension ref="A1:H339"/>
   <sheetViews>
-    <sheetView topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G339"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2939,7 +2950,7 @@
         <v>0.63705223</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" hidden="1">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3077,7 +3088,7 @@
         <v>0.63705223</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" hidden="1">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3215,7 +3226,7 @@
         <v>0.63705223</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" hidden="1">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3353,7 +3364,7 @@
         <v>0.63705223</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" hidden="1">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3491,7 +3502,7 @@
         <v>0.69410472999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" hidden="1">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3537,7 +3548,7 @@
         <v>0.55702749299999998</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1">
+    <row r="33" spans="1:8" hidden="1">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3560,7 +3571,7 @@
         <v>0.74862511300000001</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1">
+    <row r="34" spans="1:8" hidden="1">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3583,7 +3594,7 @@
         <v>0.74862511300000001</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1">
+    <row r="35" spans="1:8" hidden="1">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3606,7 +3617,7 @@
         <v>0.74862511300000001</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1">
+    <row r="36" spans="1:8" hidden="1">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3629,7 +3640,7 @@
         <v>0.74862511300000001</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8" hidden="1">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3652,7 +3663,7 @@
         <v>0.74862511300000001</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1">
+    <row r="38" spans="1:8" hidden="1">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3675,7 +3686,7 @@
         <v>0.55702749299999998</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1">
+    <row r="39" spans="1:8" hidden="1">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3698,30 +3709,33 @@
         <v>0.74862511300000001</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1">
-      <c r="A40">
+    <row r="40" spans="1:8" s="2" customFormat="1">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>1800</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>3</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>0.9375</v>
       </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
         <v>0.69230769199999997</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <v>0.80122284200000005</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" hidden="1">
+      <c r="H40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" hidden="1">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3744,7 +3758,7 @@
         <v>0.74862511300000001</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1">
+    <row r="42" spans="1:8" hidden="1">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3767,7 +3781,7 @@
         <v>0.74862511300000001</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8" hidden="1">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3790,7 +3804,7 @@
         <v>0.74862511300000001</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1">
+    <row r="44" spans="1:8" hidden="1">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3813,7 +3827,7 @@
         <v>0.55702749299999998</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1">
+    <row r="45" spans="1:8" hidden="1">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3836,7 +3850,7 @@
         <v>0.69410472999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1">
+    <row r="46" spans="1:8" hidden="1">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3859,7 +3873,7 @@
         <v>0.74862511300000001</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1">
+    <row r="47" spans="1:8" hidden="1">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3882,7 +3896,7 @@
         <v>0.74862511300000001</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1">
+    <row r="48" spans="1:8" hidden="1">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3905,7 +3919,7 @@
         <v>0.74862511300000001</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" hidden="1">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4043,7 +4057,7 @@
         <v>0.69410472999999995</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" hidden="1">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4181,7 +4195,7 @@
         <v>0.69410472999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" hidden="1">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4319,7 +4333,7 @@
         <v>0.69410472999999995</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" hidden="1">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4457,7 +4471,7 @@
         <v>0.69410472999999995</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" hidden="1">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4595,7 +4609,7 @@
         <v>0.69410472999999995</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" hidden="1">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4733,7 +4747,7 @@
         <v>0.69410472999999995</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" hidden="1">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4871,7 +4885,7 @@
         <v>0.69410472999999995</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" hidden="1">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5009,7 +5023,7 @@
         <v>0.74862511300000001</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" hidden="1">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5147,7 +5161,7 @@
         <v>0.74862511300000001</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" hidden="1">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5285,7 +5299,7 @@
         <v>0.74862511300000001</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" hidden="1">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5423,7 +5437,7 @@
         <v>0.74862511300000001</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" hidden="1">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5561,7 +5575,7 @@
         <v>0.74862511300000001</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" hidden="1">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5699,7 +5713,7 @@
         <v>0.74862511300000001</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" hidden="1">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5837,7 +5851,7 @@
         <v>0.74862511300000001</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" hidden="1">
       <c r="A133">
         <v>132</v>
       </c>
@@ -5975,7 +5989,7 @@
         <v>0.69410472999999995</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" hidden="1">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6113,7 +6127,7 @@
         <v>0.74862511300000001</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:8" hidden="1">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6136,7 +6150,7 @@
         <v>0.74862511300000001</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1">
+    <row r="146" spans="1:8" hidden="1">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6159,7 +6173,7 @@
         <v>0.49749130699999999</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1">
+    <row r="147" spans="1:8" hidden="1">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6182,7 +6196,7 @@
         <v>0.69410472999999995</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1">
+    <row r="148" spans="1:8" hidden="1">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6205,7 +6219,7 @@
         <v>0.74862511300000001</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1">
+    <row r="149" spans="1:8" hidden="1">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6228,7 +6242,7 @@
         <v>0.69410472999999995</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1">
+    <row r="150" spans="1:8" hidden="1">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6251,7 +6265,7 @@
         <v>0.69410472999999995</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:8" hidden="1">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6274,7 +6288,7 @@
         <v>0.69410472999999995</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1">
+    <row r="152" spans="1:8" hidden="1">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6297,7 +6311,7 @@
         <v>0.47431343300000001</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1">
+    <row r="153" spans="1:8" hidden="1">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6320,30 +6334,33 @@
         <v>0.69410472999999995</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1">
-      <c r="A154">
+    <row r="154" spans="1:8" s="2" customFormat="1">
+      <c r="A154" s="2">
         <v>153</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="2">
         <v>2750</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="2">
         <v>3</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="2">
         <v>0.9375</v>
       </c>
-      <c r="E154">
-        <v>1</v>
-      </c>
-      <c r="F154">
+      <c r="E154" s="2">
+        <v>1</v>
+      </c>
+      <c r="F154" s="2">
         <v>0.69230769199999997</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="2">
         <v>0.80122284200000005</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" hidden="1">
+      <c r="H154" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" hidden="1">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6366,7 +6383,7 @@
         <v>0.69410472999999995</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1">
+    <row r="156" spans="1:8" hidden="1">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6389,7 +6406,7 @@
         <v>0.69410472999999995</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:8" hidden="1">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6412,7 +6429,7 @@
         <v>0.69410472999999995</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1">
+    <row r="158" spans="1:8" hidden="1">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6435,7 +6452,7 @@
         <v>0.47431343300000001</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1">
+    <row r="159" spans="1:8" hidden="1">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6458,7 +6475,7 @@
         <v>0.74862511300000001</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1">
+    <row r="160" spans="1:8" hidden="1">
       <c r="A160">
         <v>159</v>
       </c>
@@ -6481,7 +6498,7 @@
         <v>0.74538597100000004</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1">
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>160</v>
       </c>
@@ -6503,8 +6520,11 @@
       <c r="G161">
         <v>0.80122284200000005</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" hidden="1">
+      <c r="H161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>161</v>
       </c>
@@ -6526,8 +6546,11 @@
       <c r="G162">
         <v>0.80122284200000005</v>
       </c>
-    </row>
-    <row r="163" spans="1:7">
+      <c r="H162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>162</v>
       </c>
@@ -6549,8 +6572,11 @@
       <c r="G163">
         <v>0.80122284200000005</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" hidden="1">
+      <c r="H163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" hidden="1">
       <c r="A164">
         <v>163</v>
       </c>
@@ -6573,7 +6599,7 @@
         <v>0.329915287732156</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1">
+    <row r="165" spans="1:8" hidden="1">
       <c r="A165">
         <v>164</v>
       </c>
@@ -6596,7 +6622,7 @@
         <v>0.74538597102194304</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1">
+    <row r="166" spans="1:8" hidden="1">
       <c r="A166">
         <v>165</v>
       </c>
@@ -6619,7 +6645,7 @@
         <v>0.74538597102194304</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:8" hidden="1">
       <c r="A167">
         <v>166</v>
       </c>
@@ -6642,7 +6668,7 @@
         <v>0.74538597102194304</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1">
+    <row r="168" spans="1:8" hidden="1">
       <c r="A168">
         <v>167</v>
       </c>
@@ -6665,7 +6691,7 @@
         <v>0.329915287732156</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1">
+    <row r="169" spans="1:8" hidden="1">
       <c r="A169">
         <v>168</v>
       </c>
@@ -6688,7 +6714,7 @@
         <v>0.74538597102194304</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1">
+    <row r="170" spans="1:8" hidden="1">
       <c r="A170">
         <v>169</v>
       </c>
@@ -6711,7 +6737,7 @@
         <v>0.74538597102194304</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:8" hidden="1">
       <c r="A171">
         <v>170</v>
       </c>
@@ -6734,7 +6760,7 @@
         <v>0.74538597102194304</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1">
+    <row r="172" spans="1:8" hidden="1">
       <c r="A172">
         <v>171</v>
       </c>
@@ -6757,7 +6783,7 @@
         <v>0.329915287732156</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1">
+    <row r="173" spans="1:8" hidden="1">
       <c r="A173">
         <v>172</v>
       </c>
@@ -6780,7 +6806,7 @@
         <v>0.74538597102194304</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1">
+    <row r="174" spans="1:8" hidden="1">
       <c r="A174">
         <v>173</v>
       </c>
@@ -6803,7 +6829,7 @@
         <v>0.74538597102194304</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:8" hidden="1">
       <c r="A175">
         <v>174</v>
       </c>
@@ -6826,7 +6852,7 @@
         <v>0.74538597102194304</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1">
+    <row r="176" spans="1:8" hidden="1">
       <c r="A176">
         <v>175</v>
       </c>
@@ -6895,7 +6921,7 @@
         <v>0.178493643098526</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" hidden="1">
       <c r="A179">
         <v>178</v>
       </c>
@@ -6987,7 +7013,7 @@
         <v>0.178493643098526</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" hidden="1">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7079,7 +7105,7 @@
         <v>0.178493643098526</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" hidden="1">
       <c r="A187">
         <v>186</v>
       </c>
@@ -7171,7 +7197,7 @@
         <v>0.178493643098526</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" hidden="1">
       <c r="A191">
         <v>190</v>
       </c>
@@ -7263,7 +7289,7 @@
         <v>0.178493643098526</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" hidden="1">
       <c r="A195">
         <v>194</v>
       </c>
@@ -7355,7 +7381,7 @@
         <v>0.178493643098526</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" hidden="1">
       <c r="A199">
         <v>198</v>
       </c>
@@ -7447,7 +7473,7 @@
         <v>0.16294759249954799</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" hidden="1">
       <c r="A203">
         <v>202</v>
       </c>
@@ -7539,7 +7565,7 @@
         <v>0.194183909345154</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" hidden="1">
       <c r="A207">
         <v>206</v>
       </c>
@@ -7631,7 +7657,7 @@
         <v>0.194183909345154</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" hidden="1">
       <c r="A211">
         <v>210</v>
       </c>
@@ -7723,7 +7749,7 @@
         <v>0.194183909345154</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" hidden="1">
       <c r="A215">
         <v>214</v>
       </c>
@@ -7815,7 +7841,7 @@
         <v>0.194183909345154</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" hidden="1">
       <c r="A219">
         <v>218</v>
       </c>
@@ -7907,7 +7933,7 @@
         <v>0.194183909345154</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" hidden="1">
       <c r="A223">
         <v>222</v>
       </c>
@@ -7999,7 +8025,7 @@
         <v>0.194183909345154</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" hidden="1">
       <c r="A227">
         <v>226</v>
       </c>
@@ -8091,7 +8117,7 @@
         <v>0.194183909345154</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" hidden="1">
       <c r="A231">
         <v>230</v>
       </c>
@@ -8183,7 +8209,7 @@
         <v>0.194183909345154</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" hidden="1">
       <c r="A235">
         <v>234</v>
       </c>
@@ -8275,7 +8301,7 @@
         <v>0.194183909345154</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" hidden="1">
       <c r="A239">
         <v>238</v>
       </c>
@@ -8367,7 +8393,7 @@
         <v>0.194183909345154</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" hidden="1">
       <c r="A243">
         <v>242</v>
       </c>
@@ -8459,7 +8485,7 @@
         <v>0.194183909345154</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" hidden="1">
       <c r="A247">
         <v>246</v>
       </c>
@@ -8551,7 +8577,7 @@
         <v>0.194183909345154</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" hidden="1">
       <c r="A251">
         <v>250</v>
       </c>
@@ -8643,7 +8669,7 @@
         <v>0.194183909345154</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" hidden="1">
       <c r="A255">
         <v>254</v>
       </c>
@@ -8735,7 +8761,7 @@
         <v>0.194183909345154</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" hidden="1">
       <c r="A259">
         <v>258</v>
       </c>
@@ -8827,7 +8853,7 @@
         <v>0.194183909345154</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" hidden="1">
       <c r="A263">
         <v>262</v>
       </c>
@@ -8919,7 +8945,7 @@
         <v>0.194183909345154</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" hidden="1">
       <c r="A267">
         <v>266</v>
       </c>
@@ -9011,7 +9037,7 @@
         <v>0.194183909345154</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" hidden="1">
       <c r="A271">
         <v>270</v>
       </c>
@@ -9103,7 +9129,7 @@
         <v>0.194183909345154</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" hidden="1">
       <c r="A275">
         <v>274</v>
       </c>
@@ -9195,7 +9221,7 @@
         <v>0.194183909345154</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" hidden="1">
       <c r="A279">
         <v>278</v>
       </c>
@@ -9287,7 +9313,7 @@
         <v>0.194183909345154</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" hidden="1">
       <c r="A283">
         <v>282</v>
       </c>
@@ -9379,7 +9405,7 @@
         <v>0.194183909345154</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" hidden="1">
       <c r="A287">
         <v>286</v>
       </c>
@@ -9471,7 +9497,7 @@
         <v>0.210063947320034</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" hidden="1">
       <c r="A291">
         <v>290</v>
       </c>
@@ -9563,7 +9589,7 @@
         <v>0.27074557691828399</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" hidden="1">
       <c r="A295">
         <v>294</v>
       </c>
@@ -9655,7 +9681,7 @@
         <v>0.27074557691828399</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" hidden="1">
       <c r="A299">
         <v>298</v>
       </c>
@@ -9747,7 +9773,7 @@
         <v>0.27074557691828399</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" hidden="1">
       <c r="A303">
         <v>302</v>
       </c>
@@ -9839,7 +9865,7 @@
         <v>0.27074557691828399</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" hidden="1">
       <c r="A307">
         <v>306</v>
       </c>
@@ -9931,7 +9957,7 @@
         <v>0.27074557691828399</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" hidden="1">
       <c r="A311">
         <v>310</v>
       </c>
@@ -10023,7 +10049,7 @@
         <v>0.27074557691828399</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" hidden="1">
       <c r="A315">
         <v>314</v>
       </c>
@@ -10115,7 +10141,7 @@
         <v>0.27074557691828399</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" hidden="1">
       <c r="A319">
         <v>318</v>
       </c>
@@ -10207,7 +10233,7 @@
         <v>0.27074557691828399</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" hidden="1">
       <c r="A323">
         <v>322</v>
       </c>
@@ -10299,7 +10325,7 @@
         <v>0.27074557691828399</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" hidden="1">
       <c r="A327">
         <v>326</v>
       </c>
@@ -10391,7 +10417,7 @@
         <v>0.27074557691828399</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" hidden="1">
       <c r="A331">
         <v>330</v>
       </c>
@@ -10483,7 +10509,7 @@
         <v>0.27074557691828399</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" hidden="1">
       <c r="A335">
         <v>334</v>
       </c>
@@ -10575,7 +10601,7 @@
         <v>7.1938025261227806E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" hidden="1">
       <c r="A339">
         <v>338</v>
       </c>
@@ -10599,11 +10625,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G339">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="100"/>
-      </filters>
+  <autoFilter ref="A1:H339">
+    <filterColumn colId="7">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState ref="B2:G339">
@@ -10616,10 +10642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E72"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11083,20 +11109,20 @@
         <v>0.69410472999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
+    <row r="28" spans="1:5" s="1" customFormat="1">
+      <c r="A28" s="1">
         <v>2800</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>0.9375</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
         <v>0.69230769199999997</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>0.80122284200000005</v>
       </c>
     </row>
@@ -11848,8 +11874,15 @@
         <v>0.210063947320034</v>
       </c>
     </row>
+    <row r="73" spans="1:5">
+      <c r="E73">
+        <f>MAX(E2:E72)</f>
+        <v>0.80122284200000005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>